--- a/data/processed/pH_0.01M_CaCl2.xlsx
+++ b/data/processed/pH_0.01M_CaCl2.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penninoa/Documents/VT/Data/MyData/Soil_Analyses/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F48BFB-CE93-794A-9AF2-03E9A5BDF97C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB84F1C3-21AD-0F45-BB49-36BB203574DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1900" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
     <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="174">
   <si>
     <t>Date</t>
   </si>
@@ -335,9 +335,6 @@
     <t>86.3_C</t>
   </si>
   <si>
-    <t>86.3_E</t>
-  </si>
-  <si>
     <t>*Method: 0.01 M CaCl2; 2:1 (CaCl:soil)</t>
   </si>
   <si>
@@ -438,9 +435,6 @@
   </si>
   <si>
     <t>Bhs2.3</t>
-  </si>
-  <si>
-    <t>D1-2</t>
   </si>
   <si>
     <t>D3</t>
@@ -546,6 +540,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>86.3_Oa</t>
   </si>
 </sst>
 </file>
@@ -868,8 +865,8 @@
   </sheetPr>
   <dimension ref="A1:AB1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -887,22 +884,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -934,10 +931,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>3</v>
@@ -976,10 +973,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>3</v>
@@ -1018,10 +1015,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>3</v>
@@ -1060,10 +1057,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>3</v>
@@ -1102,10 +1099,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>3</v>
@@ -1144,10 +1141,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>3</v>
@@ -1186,10 +1183,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>3</v>
@@ -1228,10 +1225,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>3</v>
@@ -1270,10 +1267,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>3</v>
@@ -1312,10 +1309,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>3</v>
@@ -1354,10 +1351,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>3</v>
@@ -1396,10 +1393,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>3</v>
@@ -1438,10 +1435,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>3</v>
@@ -1480,10 +1477,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>3</v>
@@ -1522,10 +1519,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>3</v>
@@ -1564,10 +1561,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>3</v>
@@ -1606,10 +1603,10 @@
         <v>19</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>3</v>
@@ -1648,10 +1645,10 @@
         <v>20</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>3</v>
@@ -1690,10 +1687,10 @@
         <v>21</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>3</v>
@@ -1732,10 +1729,10 @@
         <v>22</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>3</v>
@@ -1774,10 +1771,10 @@
         <v>23</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>3</v>
@@ -1816,10 +1813,10 @@
         <v>24</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>134</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>3</v>
@@ -1858,10 +1855,10 @@
         <v>25</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>3</v>
@@ -1900,10 +1897,10 @@
         <v>26</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>3</v>
@@ -1942,10 +1939,10 @@
         <v>27</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>28</v>
@@ -1984,10 +1981,10 @@
         <v>29</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>3</v>
@@ -2026,10 +2023,10 @@
         <v>30</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>3</v>
@@ -2068,10 +2065,10 @@
         <v>31</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>3</v>
@@ -2110,10 +2107,10 @@
         <v>32</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>3</v>
@@ -2152,10 +2149,10 @@
         <v>33</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>3</v>
@@ -2194,10 +2191,10 @@
         <v>34</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>3</v>
@@ -2236,10 +2233,10 @@
         <v>35</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>3</v>
@@ -2278,10 +2275,10 @@
         <v>36</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>3</v>
@@ -2320,10 +2317,10 @@
         <v>37</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>3</v>
@@ -2362,10 +2359,10 @@
         <v>38</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>28</v>
@@ -2404,10 +2401,10 @@
         <v>39</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>3</v>
@@ -2446,10 +2443,10 @@
         <v>40</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>3</v>
@@ -2488,10 +2485,10 @@
         <v>41</v>
       </c>
       <c r="C39" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>3</v>
@@ -2530,10 +2527,10 @@
         <v>42</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>3</v>
@@ -2572,10 +2569,10 @@
         <v>43</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>3</v>
@@ -2614,10 +2611,10 @@
         <v>44</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>3</v>
@@ -2656,10 +2653,10 @@
         <v>45</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>3</v>
@@ -2698,10 +2695,10 @@
         <v>46</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>3</v>
@@ -2740,10 +2737,10 @@
         <v>47</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>3</v>
@@ -2782,10 +2779,10 @@
         <v>48</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>3</v>
@@ -2824,10 +2821,10 @@
         <v>49</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>28</v>
@@ -2866,10 +2863,10 @@
         <v>50</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>3</v>
@@ -2908,10 +2905,10 @@
         <v>51</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>3</v>
@@ -2950,10 +2947,10 @@
         <v>52</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>3</v>
@@ -2992,10 +2989,10 @@
         <v>53</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>3</v>
@@ -3034,10 +3031,10 @@
         <v>54</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>3</v>
@@ -3076,10 +3073,10 @@
         <v>55</v>
       </c>
       <c r="C53" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>3</v>
@@ -3118,10 +3115,10 @@
         <v>56</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>3</v>
@@ -3160,10 +3157,10 @@
         <v>57</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>3</v>
@@ -3202,10 +3199,10 @@
         <v>58</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>28</v>
@@ -3244,10 +3241,10 @@
         <v>59</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>3</v>
@@ -3286,10 +3283,10 @@
         <v>60</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>3</v>
@@ -3328,10 +3325,10 @@
         <v>61</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>3</v>
@@ -3370,10 +3367,10 @@
         <v>62</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>3</v>
@@ -3412,10 +3409,10 @@
         <v>63</v>
       </c>
       <c r="C61" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>3</v>
@@ -3454,10 +3451,10 @@
         <v>64</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>3</v>
@@ -3496,10 +3493,10 @@
         <v>65</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>3</v>
@@ -3538,10 +3535,10 @@
         <v>66</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>3</v>
@@ -3580,10 +3577,10 @@
         <v>67</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>3</v>
@@ -3622,10 +3619,10 @@
         <v>68</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>3</v>
@@ -3664,10 +3661,10 @@
         <v>69</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>3</v>
@@ -3706,10 +3703,10 @@
         <v>70</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>3</v>
@@ -3748,10 +3745,10 @@
         <v>71</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>3</v>
@@ -3790,10 +3787,10 @@
         <v>72</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>3</v>
@@ -3832,10 +3829,10 @@
         <v>73</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>3</v>
@@ -3874,10 +3871,10 @@
         <v>74</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>3</v>
@@ -3916,10 +3913,10 @@
         <v>75</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>3</v>
@@ -3958,10 +3955,10 @@
         <v>76</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>3</v>
@@ -4000,10 +3997,10 @@
         <v>77</v>
       </c>
       <c r="C75" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>159</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>3</v>
@@ -4042,10 +4039,10 @@
         <v>78</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>3</v>
@@ -4084,10 +4081,10 @@
         <v>79</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>3</v>
@@ -4126,10 +4123,10 @@
         <v>80</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>3</v>
@@ -4168,10 +4165,10 @@
         <v>81</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>3</v>
@@ -4210,10 +4207,10 @@
         <v>82</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>3</v>
@@ -4252,10 +4249,10 @@
         <v>83</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>3</v>
@@ -4294,10 +4291,10 @@
         <v>84</v>
       </c>
       <c r="C82" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>163</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>3</v>
@@ -4336,10 +4333,10 @@
         <v>85</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>3</v>
@@ -4378,10 +4375,10 @@
         <v>86</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>3</v>
@@ -4420,10 +4417,10 @@
         <v>87</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>3</v>
@@ -4462,10 +4459,10 @@
         <v>88</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>3</v>
@@ -4504,10 +4501,10 @@
         <v>89</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>3</v>
@@ -4546,10 +4543,10 @@
         <v>90</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>3</v>
@@ -4588,10 +4585,10 @@
         <v>91</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>3</v>
@@ -4630,10 +4627,10 @@
         <v>92</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>3</v>
@@ -4672,10 +4669,10 @@
         <v>93</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>3</v>
@@ -4714,10 +4711,10 @@
         <v>94</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>3</v>
@@ -4756,10 +4753,10 @@
         <v>95</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>3</v>
@@ -4798,10 +4795,10 @@
         <v>96</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>3</v>
@@ -4840,10 +4837,10 @@
         <v>97</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>3</v>
@@ -4882,10 +4879,10 @@
         <v>98</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>3</v>
@@ -4924,10 +4921,10 @@
         <v>99</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>3</v>
@@ -4966,10 +4963,10 @@
         <v>100</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>3</v>
@@ -5008,17 +5005,17 @@
         <v>101</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F99" s="12"/>
       <c r="G99" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
@@ -5050,10 +5047,10 @@
         <v>102</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>3</v>
@@ -5092,10 +5089,10 @@
         <v>103</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>3</v>
@@ -5131,13 +5128,13 @@
         <v>44153</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>3</v>
@@ -32636,23 +32633,23 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/pH_0.01M_CaCl2.xlsx
+++ b/data/processed/pH_0.01M_CaCl2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penninoa/Documents/VT/Data/MyData/Soil_Analyses/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB84F1C3-21AD-0F45-BB49-36BB203574DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B5896E-4FF7-AE48-BA13-DB53EEEF3544}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -865,8 +865,8 @@
   </sheetPr>
   <dimension ref="A1:AB1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5134,7 +5134,7 @@
         <v>169</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>3</v>

--- a/data/processed/pH_0.01M_CaCl2.xlsx
+++ b/data/processed/pH_0.01M_CaCl2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penninoa/Documents/VT/Data/MyData/Soil_Analyses/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B5896E-4FF7-AE48-BA13-DB53EEEF3544}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5F1223-97C1-D345-9E6D-825AB6B4C689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="175">
   <si>
     <t>Date</t>
   </si>
@@ -544,6 +544,9 @@
   <si>
     <t>86.3_Oa</t>
   </si>
+  <si>
+    <t>BC3</t>
+  </si>
 </sst>
 </file>
 
@@ -865,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:AB1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1732,7 +1735,7 @@
         <v>126</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>3</v>
@@ -1774,7 +1777,7 @@
         <v>126</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>3</v>

--- a/data/processed/pH_0.01M_CaCl2.xlsx
+++ b/data/processed/pH_0.01M_CaCl2.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penninoa/Documents/VT/Data/MyData/Soil_Analyses/data/processed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nqpenelope/Documents/uvm/phd/research/data/lab/Exchangeable/VT/Soil_Analyses/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5F1223-97C1-D345-9E6D-825AB6B4C689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DE8E83-AFA1-4043-982E-B6FDC4CD5B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
     <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="182">
   <si>
     <t>Date</t>
   </si>
@@ -62,12 +62,6 @@
     <t>V2.1_E.4</t>
   </si>
   <si>
-    <t>W2.2_E1</t>
-  </si>
-  <si>
-    <t>W2.2_E2</t>
-  </si>
-  <si>
     <t>V3.1_Bhs1</t>
   </si>
   <si>
@@ -81,18 +75,6 @@
   </si>
   <si>
     <t>V3.1_Bhs3.3</t>
-  </si>
-  <si>
-    <t>V3.1_BC1</t>
-  </si>
-  <si>
-    <t>V3.1_BC2</t>
-  </si>
-  <si>
-    <t>V3.1_D1</t>
-  </si>
-  <si>
-    <t>V3.1_D5</t>
   </si>
   <si>
     <t>X2.1_E1.1</t>
@@ -125,18 +107,6 @@
     <t>X3.1_Bhs2.3</t>
   </si>
   <si>
-    <t>X3.1_BC1</t>
-  </si>
-  <si>
-    <t>X3.1_BC2</t>
-  </si>
-  <si>
-    <t>X3.1_D1-2</t>
-  </si>
-  <si>
-    <t>X3.1_D3</t>
-  </si>
-  <si>
     <t>W4.1_Oa</t>
   </si>
   <si>
@@ -144,30 +114,6 @@
   </si>
   <si>
     <t>W4.1_Bhs</t>
-  </si>
-  <si>
-    <t>W4.1_Bs1</t>
-  </si>
-  <si>
-    <t>W4.1_Bs2</t>
-  </si>
-  <si>
-    <t>W4.1_Bs3</t>
-  </si>
-  <si>
-    <t>W4.1_BC1</t>
-  </si>
-  <si>
-    <t>W4.1_BC2</t>
-  </si>
-  <si>
-    <t>W4.1_D1</t>
-  </si>
-  <si>
-    <t>W4.1_D2</t>
-  </si>
-  <si>
-    <t>W4.1_D4</t>
   </si>
   <si>
     <t>V4.1_Oa</t>
@@ -183,12 +129,6 @@
   </si>
   <si>
     <t>V4.1_Bhs2.2</t>
-  </si>
-  <si>
-    <t>V4.1_Bh1</t>
-  </si>
-  <si>
-    <t>V4.1_Bh2</t>
   </si>
   <si>
     <t>V4.1_BC</t>
@@ -213,27 +153,6 @@
   </si>
   <si>
     <t>X4.1_Bs2.2</t>
-  </si>
-  <si>
-    <t>X4.1_BC1</t>
-  </si>
-  <si>
-    <t>X4.1_BC2</t>
-  </si>
-  <si>
-    <t>X4.1_D1</t>
-  </si>
-  <si>
-    <t>X4.1_D3</t>
-  </si>
-  <si>
-    <t>X4.1_D4</t>
-  </si>
-  <si>
-    <t>X4.1_D5</t>
-  </si>
-  <si>
-    <t>X4.1_D9</t>
   </si>
   <si>
     <t>V5.1_Bhs</t>
@@ -350,9 +269,6 @@
     <t>pedon</t>
   </si>
   <si>
-    <t>horizon</t>
-  </si>
-  <si>
     <t>Dilution_pH</t>
   </si>
   <si>
@@ -392,12 +308,6 @@
     <t>E2</t>
   </si>
   <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
     <t>86_2_W2.2</t>
   </si>
   <si>
@@ -405,18 +315,6 @@
   </si>
   <si>
     <t>Bhs3.3</t>
-  </si>
-  <si>
-    <t>BC1</t>
-  </si>
-  <si>
-    <t>BC2</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D5</t>
   </si>
   <si>
     <t>52_2_X2.1</t>
@@ -437,9 +335,6 @@
     <t>Bhs2.3</t>
   </si>
   <si>
-    <t>D3</t>
-  </si>
-  <si>
     <t>86_4_W4.1</t>
   </si>
   <si>
@@ -447,18 +342,6 @@
   </si>
   <si>
     <t>Bs1</t>
-  </si>
-  <si>
-    <t>Bs2</t>
-  </si>
-  <si>
-    <t>Bs3</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D4</t>
   </si>
   <si>
     <t>42_4_V4.1</t>
@@ -480,9 +363,6 @@
   </si>
   <si>
     <t>Bs2.2</t>
-  </si>
-  <si>
-    <t>D9</t>
   </si>
   <si>
     <t>42_5_V5.1</t>
@@ -545,7 +425,148 @@
     <t>86.3_Oa</t>
   </si>
   <si>
-    <t>BC3</t>
+    <t>E.1</t>
+  </si>
+  <si>
+    <t>E.2</t>
+  </si>
+  <si>
+    <t>E.3</t>
+  </si>
+  <si>
+    <t>E.4</t>
+  </si>
+  <si>
+    <t>W2.2_E.1</t>
+  </si>
+  <si>
+    <t>W2.2_E.2</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>V3.1_D.2</t>
+  </si>
+  <si>
+    <t>V3.1_BC.3</t>
+  </si>
+  <si>
+    <t>V3.1_BC.2</t>
+  </si>
+  <si>
+    <t>V3.1_BC.1</t>
+  </si>
+  <si>
+    <t>BC.1</t>
+  </si>
+  <si>
+    <t>BC.2</t>
+  </si>
+  <si>
+    <t>BC.3</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.3</t>
+  </si>
+  <si>
+    <t>Bs.1</t>
+  </si>
+  <si>
+    <t>Bs.3</t>
+  </si>
+  <si>
+    <t>Bs.2</t>
+  </si>
+  <si>
+    <t>W4.1_Bs.1</t>
+  </si>
+  <si>
+    <t>W4.1_Bs.2</t>
+  </si>
+  <si>
+    <t>W4.1_Bs.3</t>
+  </si>
+  <si>
+    <t>W4.1_BC.1</t>
+  </si>
+  <si>
+    <t>W4.1_BC.2</t>
+  </si>
+  <si>
+    <t>X3.1_BC.1</t>
+  </si>
+  <si>
+    <t>X3.1_BC.2</t>
+  </si>
+  <si>
+    <t>X3.1_D.3</t>
+  </si>
+  <si>
+    <t>X3.1_D.1-2</t>
+  </si>
+  <si>
+    <t>W4.1_D.1</t>
+  </si>
+  <si>
+    <t>W4.1_D.2</t>
+  </si>
+  <si>
+    <t>W4.1_D.4</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>V4.1_Bh.1</t>
+  </si>
+  <si>
+    <t>V4.1_Bh.2</t>
+  </si>
+  <si>
+    <t>Bh.1</t>
+  </si>
+  <si>
+    <t>Bh.2</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>D.16</t>
+  </si>
+  <si>
+    <t>X4.1_D.3</t>
+  </si>
+  <si>
+    <t>X4.1_D.6</t>
+  </si>
+  <si>
+    <t>X4.1_D.8</t>
+  </si>
+  <si>
+    <t>X4.1_D.9</t>
+  </si>
+  <si>
+    <t>X4.1_D.16</t>
+  </si>
+  <si>
+    <t>X4.1_BC.1</t>
+  </si>
+  <si>
+    <t>X4.1_BC.2</t>
+  </si>
+  <si>
+    <t>horizon</t>
   </si>
 </sst>
 </file>
@@ -868,8 +889,8 @@
   </sheetPr>
   <dimension ref="A1:AB1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -887,22 +908,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -934,10 +955,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>3</v>
@@ -976,10 +997,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>3</v>
@@ -1018,10 +1039,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>3</v>
@@ -1060,10 +1081,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>3</v>
@@ -1102,10 +1123,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>3</v>
@@ -1144,10 +1165,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>3</v>
@@ -1186,10 +1207,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>3</v>
@@ -1228,10 +1249,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>3</v>
@@ -1270,10 +1291,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>3</v>
@@ -1312,10 +1333,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>3</v>
@@ -1351,13 +1372,13 @@
         <v>44147</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>3</v>
@@ -1393,13 +1414,13 @@
         <v>44147</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>3</v>
@@ -1435,13 +1456,13 @@
         <v>44147</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>3</v>
@@ -1477,13 +1498,13 @@
         <v>44147</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>3</v>
@@ -1519,13 +1540,13 @@
         <v>44147</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>3</v>
@@ -1561,13 +1582,13 @@
         <v>44147</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>3</v>
@@ -1603,13 +1624,13 @@
         <v>44147</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>3</v>
@@ -1645,13 +1666,13 @@
         <v>44151</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>3</v>
@@ -1687,13 +1708,13 @@
         <v>44151</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>3</v>
@@ -1729,13 +1750,13 @@
         <v>44151</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>3</v>
@@ -1771,13 +1792,13 @@
         <v>44151</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>3</v>
@@ -1813,13 +1834,13 @@
         <v>44147</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>3</v>
@@ -1855,13 +1876,13 @@
         <v>44147</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>3</v>
@@ -1897,13 +1918,13 @@
         <v>44147</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>3</v>
@@ -1939,16 +1960,16 @@
         <v>44153</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F26" s="7">
         <v>2.93</v>
@@ -1981,13 +2002,13 @@
         <v>44151</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>3</v>
@@ -2023,13 +2044,13 @@
         <v>44147</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>3</v>
@@ -2065,13 +2086,13 @@
         <v>44147</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>3</v>
@@ -2107,13 +2128,13 @@
         <v>44147</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>3</v>
@@ -2149,13 +2170,13 @@
         <v>44147</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>3</v>
@@ -2191,13 +2212,13 @@
         <v>44151</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>3</v>
@@ -2233,13 +2254,13 @@
         <v>44151</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>3</v>
@@ -2275,13 +2296,13 @@
         <v>44151</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>3</v>
@@ -2317,13 +2338,13 @@
         <v>44151</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>3</v>
@@ -2359,16 +2380,16 @@
         <v>44153</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F36" s="7">
         <v>2.76</v>
@@ -2401,13 +2422,13 @@
         <v>44151</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>3</v>
@@ -2443,13 +2464,13 @@
         <v>44151</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>3</v>
@@ -2485,13 +2506,13 @@
         <v>44151</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>3</v>
@@ -2527,13 +2548,13 @@
         <v>44151</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>3</v>
@@ -2569,13 +2590,13 @@
         <v>44151</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>3</v>
@@ -2611,13 +2632,13 @@
         <v>44151</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>3</v>
@@ -2653,13 +2674,13 @@
         <v>44151</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>3</v>
@@ -2695,13 +2716,13 @@
         <v>44151</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>3</v>
@@ -2737,13 +2758,13 @@
         <v>44151</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>3</v>
@@ -2779,13 +2800,13 @@
         <v>44151</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>3</v>
@@ -2821,16 +2842,16 @@
         <v>44153</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F47" s="7">
         <v>2.62</v>
@@ -2863,13 +2884,13 @@
         <v>44151</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>3</v>
@@ -2905,13 +2926,13 @@
         <v>44151</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>3</v>
@@ -2947,13 +2968,13 @@
         <v>44151</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>3</v>
@@ -2989,13 +3010,13 @@
         <v>44151</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>3</v>
@@ -3031,13 +3052,13 @@
         <v>44151</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>3</v>
@@ -3073,13 +3094,13 @@
         <v>44151</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>3</v>
@@ -3115,13 +3136,13 @@
         <v>44151</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>3</v>
@@ -3157,13 +3178,13 @@
         <v>44151</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>3</v>
@@ -3199,16 +3220,16 @@
         <v>44153</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F56" s="7">
         <v>2.85</v>
@@ -3241,13 +3262,13 @@
         <v>44151</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>3</v>
@@ -3283,13 +3304,13 @@
         <v>44151</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>3</v>
@@ -3325,13 +3346,13 @@
         <v>44151</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>3</v>
@@ -3367,13 +3388,13 @@
         <v>44151</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>3</v>
@@ -3409,13 +3430,13 @@
         <v>44151</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>3</v>
@@ -3451,13 +3472,13 @@
         <v>44151</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>3</v>
@@ -3493,13 +3514,13 @@
         <v>44151</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>3</v>
@@ -3535,13 +3556,13 @@
         <v>44151</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>3</v>
@@ -3577,13 +3598,13 @@
         <v>44151</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>3</v>
@@ -3619,13 +3640,13 @@
         <v>44151</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>3</v>
@@ -3661,13 +3682,13 @@
         <v>44151</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>3</v>
@@ -3703,13 +3724,13 @@
         <v>44153</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>3</v>
@@ -3745,13 +3766,13 @@
         <v>44153</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>3</v>
@@ -3787,13 +3808,13 @@
         <v>44153</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>3</v>
@@ -3829,13 +3850,13 @@
         <v>44153</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>3</v>
@@ -3871,13 +3892,13 @@
         <v>44153</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>3</v>
@@ -3913,13 +3934,13 @@
         <v>44153</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>3</v>
@@ -3955,13 +3976,13 @@
         <v>44153</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>3</v>
@@ -3997,13 +4018,13 @@
         <v>44153</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>3</v>
@@ -4039,13 +4060,13 @@
         <v>44153</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>3</v>
@@ -4081,13 +4102,13 @@
         <v>44153</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>3</v>
@@ -4123,13 +4144,13 @@
         <v>44153</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>3</v>
@@ -4165,13 +4186,13 @@
         <v>44153</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>3</v>
@@ -4207,13 +4228,13 @@
         <v>44153</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>3</v>
@@ -4249,13 +4270,13 @@
         <v>44153</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>3</v>
@@ -4291,13 +4312,13 @@
         <v>44153</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>3</v>
@@ -4333,13 +4354,13 @@
         <v>44153</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>3</v>
@@ -4375,13 +4396,13 @@
         <v>44153</v>
       </c>
       <c r="B84" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D84" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>3</v>
@@ -4417,13 +4438,13 @@
         <v>44153</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>3</v>
@@ -4459,13 +4480,13 @@
         <v>44153</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>3</v>
@@ -4501,13 +4522,13 @@
         <v>44153</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>3</v>
@@ -4543,13 +4564,13 @@
         <v>44153</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>3</v>
@@ -4585,13 +4606,13 @@
         <v>44153</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>3</v>
@@ -4627,13 +4648,13 @@
         <v>44153</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>3</v>
@@ -4669,13 +4690,13 @@
         <v>44153</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>3</v>
@@ -4711,13 +4732,13 @@
         <v>44153</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>3</v>
@@ -4753,13 +4774,13 @@
         <v>44153</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>3</v>
@@ -4795,13 +4816,13 @@
         <v>44153</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>3</v>
@@ -4837,13 +4858,13 @@
         <v>44153</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>3</v>
@@ -4879,13 +4900,13 @@
         <v>44153</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>3</v>
@@ -4921,13 +4942,13 @@
         <v>44153</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>3</v>
@@ -4963,13 +4984,13 @@
         <v>44153</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>3</v>
@@ -5005,20 +5026,20 @@
         <v>44153</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F99" s="12"/>
       <c r="G99" s="12" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
@@ -5047,13 +5068,13 @@
         <v>44153</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>3</v>
@@ -5089,13 +5110,13 @@
         <v>44153</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>3</v>
@@ -5131,13 +5152,13 @@
         <v>44153</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>3</v>
@@ -32636,23 +32657,23 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
